--- a/ww2-losses/occupation-imr.xlsx
+++ b/ww2-losses/occupation-imr.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\ww2-losses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\ww2-losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1113692-115C-4C73-8A52-90B081066B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E0A291-D7B2-492B-8032-E35125DBE38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64140" yWindow="1065" windowWidth="20250" windowHeight="20820" xr2:uid="{6B3F25B8-6ADA-4911-A7CD-E7E98E2CE307}"/>
+    <workbookView xWindow="-540" yWindow="2475" windowWidth="18405" windowHeight="19065" xr2:uid="{6B3F25B8-6ADA-4911-A7CD-E7E98E2CE307}"/>
   </bookViews>
   <sheets>
     <sheet name="OCCUP" sheetId="3" r:id="rId1"/>
     <sheet name="IMR" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>год</t>
   </si>
@@ -45,22 +40,13 @@
     <t>месяц</t>
   </si>
   <si>
-    <t># месяца</t>
-  </si>
-  <si>
     <t>Доля населения СССР на оккупированных территориях во время войны 1941-1945 гг.</t>
   </si>
   <si>
-    <t>Федеральная служба государственной статистики, "Великая отечественная война : юбилейный статистический сборник", М. 2020, стр. 36.</t>
-  </si>
-  <si>
     <t>Исходные данные для расчёта:</t>
   </si>
   <si>
     <t>% оккуп</t>
-  </si>
-  <si>
-    <t>% оккуп = процент оккупированного (довоенного?) населения, ко всей численности населения</t>
   </si>
   <si>
     <t>интерполяция</t>
@@ -92,6 +78,21 @@
   <si>
     <t>год и 
 полугодие</t>
+  </si>
+  <si>
+    <t>Госкомстат СССР, "Народное хозяйство СССР в Великой Отечественной войне 1941–1945 гг. : Статистический сборник", М. 1990, стр. 20;</t>
+  </si>
+  <si>
+    <t>тж. Федеральная служба государственной статистики, "Великая отечественная война : юбилейный статистический сборник", М. 2020, стр. 36.</t>
+  </si>
+  <si>
+    <t>% оккуп = процент населения по переписи 1939 года, ко всей численности населения, проживавший в 1939 году на территориях оккупированных в разные периоды 1941-1945 гг.</t>
+  </si>
+  <si>
+    <t>среднее за полугодие</t>
+  </si>
+  <si>
+    <t>№ месяца</t>
   </si>
 </sst>
 </file>
@@ -101,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +123,46 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -152,16 +186,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,945 +542,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E1AFA6-FC99-42A2-8084-0964C747BDF9}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="6" width="8.76171875" style="2"/>
-    <col min="7" max="7" width="13.046875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.76171875" style="2"/>
+    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
+    <col min="2" max="6" width="8.75" style="2"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.1">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f>AVERAGE(G10:G16)</f>
+        <v>19.550000000000011</v>
+      </c>
+      <c r="M10" s="2">
+        <f>37265*I10/19.6</f>
+        <v>37169.936224489815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C11" s="2">
+        <f>C10+1</f>
         <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>1941</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <f>AVERAGE(G9:G15)</f>
-        <v>19.550000000000011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <f>C9+1</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="G10" s="3">
-        <v>6.5166666666666702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:C63" si="0">C10+1</f>
-        <v>3</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3">
-        <v>13.03333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>6.5166666666666702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="B12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="C12:C64" si="0">C11+1</f>
+        <v>3</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3">
-        <v>19.550000000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13.03333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3">
-        <v>26.066666666666681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>19.550000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3">
+        <v>26.066666666666681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3">
         <v>32.58333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="2">
+    <row r="16" spans="1:13">
+      <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>39.1</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>39.100000000000023</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
+    <row r="17" spans="1:13">
+      <c r="A17" s="2">
         <v>1942</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3">
-        <v>38.233333333333348</v>
-      </c>
-      <c r="I16" s="3">
-        <f>AVERAGE(G16:G22)</f>
-        <v>37.835714285714289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3">
+        <v>38.233333333333348</v>
+      </c>
+      <c r="I17" s="3">
+        <f>AVERAGE(G17:G23)</f>
+        <v>37.835714285714289</v>
+      </c>
+      <c r="M17" s="2">
+        <f>37265*I17/19.6</f>
+        <v>71936.116982507287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3">
         <v>37.366666666666674</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="2">
+    <row r="19" spans="1:13">
+      <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>36.5</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>36.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="2">
+    <row r="20" spans="1:13">
+      <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3">
-        <v>37.174999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3">
-        <v>37.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37.174999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="B21" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3">
-        <v>38.524999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>37.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="B22" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="3">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="I22" s="3">
-        <f>AVERAGE(G22:G28)</f>
-        <v>40.067857142857143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>38.524999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="3">
-        <v>39.875</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I23" s="3">
+        <f>AVERAGE(G23:G29)</f>
+        <v>40.067857142857143</v>
+      </c>
+      <c r="M23" s="2">
+        <f>37265*I23/19.6</f>
+        <v>76180.03553206996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="B24" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="3">
-        <v>40.549999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>39.875</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="B25" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3"/>
       <c r="G25" s="3">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="3">
         <v>41.225000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="2">
+    <row r="27" spans="1:13">
+      <c r="B27" s="2">
         <v>11</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>41.9</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>41.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="2">
+    <row r="28" spans="1:13">
+      <c r="B28" s="2">
         <v>12</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="G27" s="3">
-        <v>39.875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2">
-        <v>1943</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
       </c>
       <c r="E28" s="3"/>
       <c r="G28" s="3">
-        <v>37.85</v>
-      </c>
-      <c r="I28" s="3">
-        <f>AVERAGE(G28:G34)</f>
-        <v>32.667857142857137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>39.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2">
+        <v>1943</v>
+      </c>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3"/>
       <c r="G29" s="3">
+        <v>37.85</v>
+      </c>
+      <c r="I29" s="3">
+        <f>AVERAGE(G29:G35)</f>
+        <v>32.667857142857137</v>
+      </c>
+      <c r="M29" s="2">
+        <f>37265*I29/19.6</f>
+        <v>62110.596756559746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3">
         <v>35.825000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="2">
+    <row r="31" spans="1:13">
+      <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="2">
+    <row r="32" spans="1:13">
+      <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="G31" s="3">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="2">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
       </c>
       <c r="E32" s="3"/>
       <c r="G32" s="3">
-        <v>30.999999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="B33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="3"/>
       <c r="G33" s="3">
-        <v>29.599999999999998</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
+        <v>30.999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="B34" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="3"/>
       <c r="G34" s="3">
-        <v>28.199999999999996</v>
-      </c>
-      <c r="I34" s="3">
-        <f>AVERAGE(G34:G40)</f>
-        <v>24.171428571428571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>29.599999999999998</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="B35" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3"/>
       <c r="G35" s="3">
-        <v>26.799999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>28.199999999999996</v>
+      </c>
+      <c r="I35" s="3">
+        <f>AVERAGE(G35:G41)</f>
+        <v>24.171428571428571</v>
+      </c>
+      <c r="M35" s="2">
+        <f>37265*I35/19.6</f>
+        <v>45956.545189504366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="B36" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="3"/>
       <c r="G36" s="3">
+        <v>26.799999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" s="2">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="G37" s="3">
         <v>25.4</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="2">
+    <row r="38" spans="1:13">
+      <c r="B38" s="2">
         <v>10</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="3">
         <v>24</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="2">
+    <row r="39" spans="1:13">
+      <c r="B39" s="2">
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="G38" s="3">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="2">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
       </c>
       <c r="E39" s="3"/>
       <c r="G39" s="3">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" s="2">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="G40" s="3">
         <v>21.6</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2">
+    <row r="41" spans="1:13">
+      <c r="A41" s="2">
         <v>1944</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="I40" s="3">
-        <f>AVERAGE(G40:G46)</f>
+      <c r="I41" s="3">
+        <f>AVERAGE(G41:G47)</f>
         <v>14.185714285714283</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="2">
+      <c r="M41" s="2">
+        <f>37265*I41/19.6</f>
+        <v>26970.951166180748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="G41" s="3">
-        <v>18.419999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" si="0"/>
-        <v>34</v>
       </c>
       <c r="E42" s="3"/>
       <c r="G42" s="3">
-        <v>16.439999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18.419999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="B43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="3"/>
       <c r="G43" s="3">
-        <v>14.459999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16.439999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="B44" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3"/>
       <c r="G44" s="3">
+        <v>14.459999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="G45" s="3">
         <v>12.479999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="2">
+    <row r="46" spans="1:13">
+      <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="3">
         <v>10.5</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="3">
         <v>10.499999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="2">
+    <row r="47" spans="1:13">
+      <c r="B47" s="2">
         <v>7</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="G46" s="3">
+      <c r="E47" s="3"/>
+      <c r="G47" s="3">
         <v>6.5999999999999979</v>
       </c>
-      <c r="I46" s="3">
-        <f>AVERAGE(G46:G52)</f>
+      <c r="I47" s="3">
+        <f>AVERAGE(G47:G53)</f>
         <v>1.7142857142857146</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="2">
+      <c r="M47" s="2">
+        <f>37265*I47/19.6</f>
+        <v>3259.3294460641405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" s="2">
         <v>8</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="3">
         <v>2.7</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>2.6999999999999984</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="2">
-        <v>9</v>
-      </c>
-      <c r="C48" s="2">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="G48" s="3">
-        <v>1.7999999999999994</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="B49" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="3"/>
       <c r="G49" s="3">
-        <v>0.90000000000000036</v>
+        <v>1.7999999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="B50" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E50" s="3"/>
       <c r="G50" s="3">
-        <v>1.3322676295501878E-15</v>
+        <v>0.90000000000000036</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="2">
+        <v>11</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1.3322676295501878E-15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="2">
         <v>12</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="G51" s="3">
-        <v>1.2297855042001738E-15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="2">
-        <v>1945</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
       </c>
       <c r="E52" s="3"/>
       <c r="G52" s="3">
-        <v>1.1273033788501599E-15</v>
-      </c>
-      <c r="I52" s="3">
-        <f>AVERAGE(G52:G58)</f>
-        <v>8.1985700280011801E-16</v>
+        <v>1.2297855042001738E-15</v>
       </c>
     </row>
     <row r="53" spans="1:9">
+      <c r="A53" s="2">
+        <v>1945</v>
+      </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" s="3"/>
       <c r="G53" s="3">
-        <v>1.0248212535001458E-15</v>
+        <v>1.1273033788501599E-15</v>
+      </c>
+      <c r="I53" s="3">
+        <f>AVERAGE(G53:G59)</f>
+        <v>8.1985700280011801E-16</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" s="3"/>
       <c r="G54" s="3">
-        <v>9.223391281501319E-16</v>
+        <v>1.0248212535001458E-15</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="B55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" s="3"/>
       <c r="G55" s="3">
-        <v>8.1985700280011781E-16</v>
+        <v>9.223391281501319E-16</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E56" s="3"/>
       <c r="G56" s="3">
-        <v>7.1737487745010383E-16</v>
+        <v>8.1985700280011781E-16</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="B57" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" s="3"/>
       <c r="G57" s="3">
-        <v>6.1489275210008984E-16</v>
+        <v>7.1737487745010383E-16</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E58" s="3"/>
       <c r="G58" s="3">
-        <v>5.1241062675007585E-16</v>
-      </c>
-      <c r="I58" s="3">
-        <f>AVERAGE(G58:G64)</f>
-        <v>2.5620531337504088E-16</v>
+        <v>6.1489275210008984E-16</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E59" s="3"/>
       <c r="G59" s="3">
-        <v>4.0992850140006187E-16</v>
+        <v>5.1241062675007585E-16</v>
+      </c>
+      <c r="I59" s="3">
+        <f>AVERAGE(G59:G65)</f>
+        <v>2.5620531337504088E-16</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="3"/>
       <c r="G60" s="3">
-        <v>3.0744637605004778E-16</v>
+        <v>4.0992850140006187E-16</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E61" s="3"/>
       <c r="G61" s="3">
-        <v>2.0496425070003389E-16</v>
+        <v>3.0744637605004778E-16</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="B62" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E62" s="3"/>
       <c r="G62" s="3">
-        <v>1.0248212535001981E-16</v>
+        <v>2.0496425070003389E-16</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="B63" s="2">
+        <v>11</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="G63" s="3">
+        <v>1.0248212535001981E-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="2">
         <v>12</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E64" s="3">
         <v>0</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G64" s="3">
         <v>5.9164567891575885E-30</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.1">
-      <c r="A67" s="5" t="s">
+    <row r="68" spans="1:6" ht="15">
+      <c r="A68" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75">
+      <c r="A70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.1">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="1:6" ht="15">
+      <c r="A71" s="9">
         <v>1941.1</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B71" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+    <row r="72" spans="1:6" ht="17.25">
+      <c r="A72" s="9">
         <v>1941.2</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B72" s="8">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+    <row r="73" spans="1:6" ht="17.25">
+      <c r="A73" s="9">
         <v>1942.1</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B73" s="8">
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+    <row r="74" spans="1:6" ht="17.25">
+      <c r="A74" s="9">
         <v>1942.2</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B74" s="8">
         <v>40.1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+    <row r="75" spans="1:6" ht="17.25">
+      <c r="A75" s="9">
         <v>1943.1</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B75" s="8">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+    <row r="76" spans="1:6" ht="17.25">
+      <c r="A76" s="9">
         <v>1943.2</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B76" s="8">
         <v>24.2</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+    <row r="77" spans="1:6" ht="17.25">
+      <c r="A77" s="9">
         <v>1944.1</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B77" s="8">
         <v>14.2</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+    <row r="78" spans="1:6" ht="17.25">
+      <c r="A78" s="9">
         <v>1944.2</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B78" s="8">
         <v>1.7</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+    <row r="79" spans="1:6" ht="17.25">
+      <c r="A79" s="9">
         <v>1945.1</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B79" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+    <row r="80" spans="1:6" ht="17.25">
+      <c r="A80" s="9">
         <v>1945.2</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B80" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I9" formulaRange="1"/>
+    <ignoredError sqref="I10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1449,42 +1540,42 @@
       <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.94921875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1505,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="2">
         <v>1941.2</v>
       </c>
@@ -1524,7 +1615,7 @@
         <v>1.2744</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="2">
         <v>1942.1</v>
       </c>
@@ -1543,7 +1634,7 @@
         <v>2.2479239999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="2">
         <v>1942.2</v>
       </c>
@@ -1562,7 +1653,7 @@
         <v>2.295258</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="2">
         <v>1943.1</v>
       </c>
@@ -1581,7 +1672,7 @@
         <v>1.1978</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="2">
         <v>1943.2</v>
       </c>
@@ -1600,7 +1691,7 @@
         <v>1.0788</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="2">
         <v>1944.1</v>
       </c>
@@ -1619,7 +1710,7 @@
         <v>0.71879999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="2">
         <v>1944.2</v>
       </c>
@@ -1638,7 +1729,7 @@
         <v>0.54380000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="2">
         <v>1945.1</v>
       </c>
@@ -1657,7 +1748,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="2">
         <v>1945.2</v>
       </c>

--- a/ww2-losses/occupation-imr.xlsx
+++ b/ww2-losses/occupation-imr.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\ww2-losses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\ww2-losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E0A291-D7B2-492B-8032-E35125DBE38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06A3D5-F9BA-4719-946E-1BFBA2A04433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-540" yWindow="2475" windowWidth="18405" windowHeight="19065" xr2:uid="{6B3F25B8-6ADA-4911-A7CD-E7E98E2CE307}"/>
+    <workbookView xWindow="59760" yWindow="3255" windowWidth="25845" windowHeight="19695" xr2:uid="{6B3F25B8-6ADA-4911-A7CD-E7E98E2CE307}"/>
   </bookViews>
   <sheets>
     <sheet name="OCCUP" sheetId="3" r:id="rId1"/>
     <sheet name="IMR" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -177,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,19 +550,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E1AFA6-FC99-42A2-8084-0964C747BDF9}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
-    <col min="2" max="6" width="8.75" style="2"/>
+    <col min="1" max="1" width="12.37890625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="8.76171875" style="2"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="2"/>
+    <col min="8" max="16384" width="8.76171875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:13" ht="14.1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -581,7 +587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" ht="14.1">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -626,7 +632,7 @@
         <f>AVERAGE(G10:G16)</f>
         <v>19.550000000000011</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="16">
         <f>37265*I10/19.6</f>
         <v>37169.936224489815</v>
       </c>
@@ -643,6 +649,7 @@
       <c r="G11" s="3">
         <v>6.5166666666666702</v>
       </c>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="2">
@@ -656,6 +663,7 @@
       <c r="G12" s="3">
         <v>13.03333333333334</v>
       </c>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="2">
@@ -669,6 +677,7 @@
       <c r="G13" s="3">
         <v>19.550000000000011</v>
       </c>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="2">
@@ -682,6 +691,7 @@
       <c r="G14" s="3">
         <v>26.066666666666681</v>
       </c>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="2">
@@ -695,6 +705,7 @@
       <c r="G15" s="3">
         <v>32.58333333333335</v>
       </c>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="2">
@@ -710,6 +721,7 @@
       <c r="G16" s="3">
         <v>39.100000000000023</v>
       </c>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
@@ -730,7 +742,7 @@
         <f>AVERAGE(G17:G23)</f>
         <v>37.835714285714289</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="16">
         <f>37265*I17/19.6</f>
         <v>71936.116982507287</v>
       </c>
@@ -747,6 +759,7 @@
       <c r="G18" s="3">
         <v>37.366666666666674</v>
       </c>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13">
       <c r="B19" s="2">
@@ -762,6 +775,7 @@
       <c r="G19" s="3">
         <v>36.5</v>
       </c>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" s="2">
@@ -775,6 +789,7 @@
       <c r="G20" s="3">
         <v>37.174999999999997</v>
       </c>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13">
       <c r="B21" s="2">
@@ -788,6 +803,7 @@
       <c r="G21" s="3">
         <v>37.85</v>
       </c>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13">
       <c r="B22" s="2">
@@ -801,6 +817,7 @@
       <c r="G22" s="3">
         <v>38.524999999999999</v>
       </c>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13">
       <c r="B23" s="2">
@@ -818,7 +835,7 @@
         <f>AVERAGE(G23:G29)</f>
         <v>40.067857142857143</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="16">
         <f>37265*I23/19.6</f>
         <v>76180.03553206996</v>
       </c>
@@ -836,6 +853,7 @@
         <v>39.875</v>
       </c>
       <c r="I24" s="3"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="2">
@@ -849,6 +867,7 @@
       <c r="G25" s="3">
         <v>40.549999999999997</v>
       </c>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="2">
@@ -862,6 +881,7 @@
       <c r="G26" s="3">
         <v>41.225000000000001</v>
       </c>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="2">
@@ -877,6 +897,7 @@
       <c r="G27" s="3">
         <v>41.9</v>
       </c>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13">
       <c r="B28" s="2">
@@ -890,6 +911,7 @@
       <c r="G28" s="3">
         <v>39.875</v>
       </c>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2">
@@ -910,7 +932,7 @@
         <f>AVERAGE(G29:G35)</f>
         <v>32.667857142857137</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="16">
         <f>37265*I29/19.6</f>
         <v>62110.596756559746</v>
       </c>
@@ -927,6 +949,7 @@
       <c r="G30" s="3">
         <v>35.825000000000003</v>
       </c>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="2">
@@ -942,6 +965,7 @@
       <c r="G31" s="3">
         <v>33.799999999999997</v>
       </c>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="2">
@@ -955,6 +979,7 @@
       <c r="G32" s="3">
         <v>32.4</v>
       </c>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13">
       <c r="B33" s="2">
@@ -968,6 +993,7 @@
       <c r="G33" s="3">
         <v>30.999999999999996</v>
       </c>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13">
       <c r="B34" s="2">
@@ -982,6 +1008,7 @@
         <v>29.599999999999998</v>
       </c>
       <c r="I34" s="3"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13">
       <c r="B35" s="2">
@@ -999,7 +1026,7 @@
         <f>AVERAGE(G35:G41)</f>
         <v>24.171428571428571</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="16">
         <f>37265*I35/19.6</f>
         <v>45956.545189504366</v>
       </c>
@@ -1016,6 +1043,7 @@
       <c r="G36" s="3">
         <v>26.799999999999997</v>
       </c>
+      <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13">
       <c r="B37" s="2">
@@ -1029,6 +1057,7 @@
       <c r="G37" s="3">
         <v>25.4</v>
       </c>
+      <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13">
       <c r="B38" s="2">
@@ -1044,6 +1073,7 @@
       <c r="G38" s="3">
         <v>24</v>
       </c>
+      <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13">
       <c r="B39" s="2">
@@ -1057,6 +1087,7 @@
       <c r="G39" s="3">
         <v>22.8</v>
       </c>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13">
       <c r="B40" s="2">
@@ -1070,6 +1101,7 @@
       <c r="G40" s="3">
         <v>21.6</v>
       </c>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2">
@@ -1092,7 +1124,7 @@
         <f>AVERAGE(G41:G47)</f>
         <v>14.185714285714283</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="16">
         <f>37265*I41/19.6</f>
         <v>26970.951166180748</v>
       </c>
@@ -1109,6 +1141,7 @@
       <c r="G42" s="3">
         <v>18.419999999999998</v>
       </c>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13">
       <c r="B43" s="2">
@@ -1122,6 +1155,7 @@
       <c r="G43" s="3">
         <v>16.439999999999998</v>
       </c>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13">
       <c r="B44" s="2">
@@ -1135,6 +1169,7 @@
       <c r="G44" s="3">
         <v>14.459999999999999</v>
       </c>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13">
       <c r="B45" s="2">
@@ -1148,6 +1183,7 @@
       <c r="G45" s="3">
         <v>12.479999999999999</v>
       </c>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13">
       <c r="B46" s="2">
@@ -1163,6 +1199,7 @@
       <c r="G46" s="3">
         <v>10.499999999999998</v>
       </c>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13">
       <c r="B47" s="2">
@@ -1180,7 +1217,7 @@
         <f>AVERAGE(G47:G53)</f>
         <v>1.7142857142857146</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="16">
         <f>37265*I47/19.6</f>
         <v>3259.3294460641405</v>
       </c>
@@ -1423,15 +1460,15 @@
         <v>5.9164567891575885E-30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15">
+    <row r="68" spans="1:6" ht="14.1">
       <c r="A68" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15">
+    <row r="69" spans="1:6" ht="14.1">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="15">
       <c r="A70" s="10" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25">
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="9">
         <v>1941.2</v>
       </c>
@@ -1459,7 +1496,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25">
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="9">
         <v>1942.1</v>
       </c>
@@ -1467,7 +1504,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25">
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="9">
         <v>1942.2</v>
       </c>
@@ -1475,7 +1512,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25">
+    <row r="75" spans="1:6" ht="15">
       <c r="A75" s="9">
         <v>1943.1</v>
       </c>
@@ -1483,7 +1520,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25">
+    <row r="76" spans="1:6" ht="15">
       <c r="A76" s="9">
         <v>1943.2</v>
       </c>
@@ -1491,7 +1528,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25">
+    <row r="77" spans="1:6" ht="15">
       <c r="A77" s="9">
         <v>1944.1</v>
       </c>
@@ -1499,7 +1536,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25">
+    <row r="78" spans="1:6" ht="15">
       <c r="A78" s="9">
         <v>1944.2</v>
       </c>
@@ -1507,7 +1544,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25">
+    <row r="79" spans="1:6" ht="15">
       <c r="A79" s="9">
         <v>1945.1</v>
       </c>
@@ -1515,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25">
+    <row r="80" spans="1:6" ht="15">
       <c r="A80" s="9">
         <v>1945.2</v>
       </c>
@@ -1540,14 +1577,14 @@
       <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="27.37890625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="17.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="14.1">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>1941.2</v>
       </c>
@@ -1615,7 +1652,7 @@
         <v>1.2744</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>1942.1</v>
       </c>
@@ -1634,7 +1671,7 @@
         <v>2.2479239999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>1942.2</v>
       </c>
@@ -1653,7 +1690,7 @@
         <v>2.295258</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>1943.1</v>
       </c>
@@ -1672,7 +1709,7 @@
         <v>1.1978</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>1943.2</v>
       </c>
@@ -1691,7 +1728,7 @@
         <v>1.0788</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>1944.1</v>
       </c>
@@ -1710,7 +1747,7 @@
         <v>0.71879999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>1944.2</v>
       </c>
@@ -1729,7 +1766,7 @@
         <v>0.54380000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>1945.1</v>
       </c>
@@ -1748,7 +1785,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>1945.2</v>
       </c>
